--- a/Good Recordings/8.1.Labels.xlsx
+++ b/Good Recordings/8.1.Labels.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuval\Desktop\הנדסה ביו רפואית\שנה ד\סמסטר א\חישה רציפה\פרויקט 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Continuous_Monitoring_project1\Good Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEC9CBE-111C-403C-8E2A-B0A0A7FF0B20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE6AEFD-8695-4381-BBF4-C29BA50E009B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="1044" windowWidth="12960" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
@@ -451,7 +451,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -476,7 +476,7 @@
         <v>478.7</v>
       </c>
       <c r="B2" s="2">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -498,7 +498,7 @@
         <v>1342</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>5</v>

--- a/Good Recordings/8.1.Labels.xlsx
+++ b/Good Recordings/8.1.Labels.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Continuous_Monitoring_project1\Good Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE6AEFD-8695-4381-BBF4-C29BA50E009B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376754C0-FDC7-42D5-AFE4-2C3DF7C824C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -50,7 +50,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,15 +60,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="177"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -104,12 +95,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,19 +437,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.296875" customWidth="1"/>
-    <col min="3" max="3" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -471,7 +460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>478.7</v>
       </c>
@@ -482,9 +471,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1107</v>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>910</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
@@ -493,27 +482,62 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1342</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="3">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1775</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="3">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>3</v>
       </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -527,7 +551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -539,7 +563,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Good Recordings/8.1.Labels.xlsx
+++ b/Good Recordings/8.1.Labels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Continuous_Monitoring_project1\Good Recordings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376754C0-FDC7-42D5-AFE4-2C3DF7C824C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6A0CF5-D6A0-4178-8E66-0DA7A061FC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -440,7 +440,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -487,7 +487,7 @@
         <v>1342</v>
       </c>
       <c r="B4" s="3">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>5</v>
